--- a/Income/SLB_inc.xlsx
+++ b/Income/SLB_inc.xlsx
@@ -2108,16 +2108,16 @@
         <v>0.0971</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.1074</v>
+        <v>0.1072</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.1191</v>
+        <v>0.1189</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.1266</v>
+        <v>0.1265</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.1276</v>
+        <v>0.1275</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.1249</v>
@@ -4205,16 +4205,16 @@
         <v>0.1494</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.1658</v>
+        <v>0.1752</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.1833</v>
+        <v>0.1915</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.1965</v>
+        <v>0.204</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2004</v>
+        <v>0.2079</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.2073</v>
